--- a/内科学笔记/儿科学汇总表格.xlsx
+++ b/内科学笔记/儿科学汇总表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>新生儿疾病</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,95 @@
   </si>
   <si>
     <t>麦味地黄丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅口疮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脾积热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔、舌面布满白屑，周围焮红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热泻脾散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚火上浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口舌白屑散布，周围焮红不甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知柏地黄丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脾肾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口疮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风热乘脾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心火上炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外感引起，舌、唇等疱疹溃烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疱疹、溃疮以舌面、舌边尖为多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复发作，溃烂点少，表面黄白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知柏地黄丸（滋阴降火）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即口腔溃疡
+素体积热，虚阴火旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻心导赤散(心开窍于舌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾系统病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疳证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,6 +667,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +677,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -598,18 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -915,10 +1004,10 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -930,14 +1019,14 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>52</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -947,12 +1036,12 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -964,14 +1053,14 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -981,12 +1070,12 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -996,14 +1085,14 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1015,14 +1104,14 @@
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1032,12 +1121,12 @@
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="8"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1047,12 +1136,12 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1064,14 +1153,14 @@
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1081,12 +1170,12 @@
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1096,12 +1185,12 @@
       <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1111,12 +1200,12 @@
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1126,12 +1215,12 @@
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1143,14 +1232,14 @@
       <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>61</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
@@ -1160,12 +1249,12 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
@@ -1175,12 +1264,12 @@
       <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1190,12 +1279,12 @@
       <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1205,12 +1294,12 @@
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1220,12 +1309,12 @@
       <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1237,14 +1326,14 @@
       <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1254,111 +1343,154 @@
       <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="16" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="16" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="9"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1382,7 +1514,9 @@
       <c r="I34"/>
     </row>
     <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1406,7 +1540,9 @@
       <c r="I37"/>
     </row>
     <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1430,7 +1566,9 @@
       <c r="I40"/>
     </row>
     <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1678,7 +1816,16 @@
     <row r="78" spans="2:9" ht="20.100000000000001" customHeight="1"/>
     <row r="79" spans="2:9" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F4:F6"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A7:A26"/>
     <mergeCell ref="F7:F9"/>
@@ -1688,11 +1835,6 @@
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="F21:F26"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/儿科学汇总表格.xlsx
+++ b/内科学笔记/儿科学汇总表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
   <si>
     <t>新生儿疾病</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,178 @@
   </si>
   <si>
     <t>疳证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾胃
+脾困湿盛
+升降失司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤食泻泄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风寒泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿热泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾虚泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾阳虚泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气阴两伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴竭阳脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保和丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便稀夹不消化食物，气味酸臭，脘腹胀痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大便清稀有泡沫，臭味不甚，肠鸣腹痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藿香正气散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻下急，量多次频，气味臭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛根黄芩黄连汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复发作，大便稀不臭，食后泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参苓白术散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久泻不愈，完谷不化，形寒肢冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附子理中汤/四神丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻下无度，皮肤干燥，精神萎靡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人参乌梅汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻下无度，精神萎靡，四肢阙冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生脉散/参附龙牡救逆汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾胃不和
+纳化失职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾失健运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不换金正气散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌食之外，精神、形体正常，轻微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾胃气虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不思饮食，面色少华，肢倦乏力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异功散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾胃阴虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴虚则火旺，食少饮多，大便干，舌红少苔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养胃增液汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾胃
+乳食积滞，气滞不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消乳丸/保和丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳食内积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳食不节，不思饮食，脘腹胀痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾虚夹积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面黄神疲，腹满喜按，吐酸腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健脾丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食积化热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积实导滞丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +683,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -648,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,11 +853,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,9 +871,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +879,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -975,8 +1164,8 @@
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
   </cols>
@@ -1019,14 +1208,14 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1036,11 +1225,11 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1059,8 +1248,8 @@
       <c r="I4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1070,12 +1259,12 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1085,11 +1274,11 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1104,14 +1293,14 @@
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1121,12 +1310,12 @@
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1136,11 +1325,11 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
@@ -1153,13 +1342,13 @@
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>58</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -1170,11 +1359,11 @@
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="9"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>43</v>
@@ -1185,11 +1374,11 @@
       <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>46</v>
@@ -1200,11 +1389,11 @@
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>49</v>
@@ -1215,11 +1404,11 @@
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1232,14 +1421,14 @@
       <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
@@ -1249,12 +1438,12 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
@@ -1264,12 +1453,12 @@
       <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="9"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1279,12 +1468,12 @@
       <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1294,12 +1483,12 @@
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1309,11 +1498,11 @@
       <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1332,8 +1521,8 @@
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1343,12 +1532,12 @@
       <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
         <v>81</v>
       </c>
@@ -1358,12 +1547,12 @@
       <c r="E23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="9"/>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
@@ -1373,12 +1562,12 @@
       <c r="E24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="9"/>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
         <v>86</v>
       </c>
@@ -1388,12 +1577,12 @@
       <c r="E25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="9"/>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6" t="s">
         <v>89</v>
       </c>
@@ -1403,11 +1592,11 @@
       <c r="E26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="8"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1428,7 +1617,8 @@
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
         <v>96</v>
       </c>
@@ -1438,10 +1628,11 @@
       <c r="E28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="9"/>
       <c r="B29" s="7" t="s">
         <v>100</v>
       </c>
@@ -1454,13 +1645,14 @@
       <c r="E29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2" t="s">
         <v>102</v>
       </c>
@@ -1470,11 +1662,12 @@
       <c r="E30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
         <v>96</v>
       </c>
@@ -1484,170 +1677,273 @@
       <c r="E31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="8"/>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="17"/>
       <c r="I33"/>
     </row>
-    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="17"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="5" t="s">
+      <c r="C39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="9"/>
+      <c r="B42" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="5" t="s">
+      <c r="C42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="5"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="5"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="5"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="5"/>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="5"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="5"/>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="5"/>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="5"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="5"/>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="5"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="5"/>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1655,7 +1951,7 @@
       <c r="F51" s="5"/>
       <c r="I51"/>
     </row>
-    <row r="52" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1663,7 +1959,7 @@
       <c r="F52" s="5"/>
       <c r="I52"/>
     </row>
-    <row r="53" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1671,7 +1967,7 @@
       <c r="F53" s="5"/>
       <c r="I53"/>
     </row>
-    <row r="54" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1679,7 +1975,7 @@
       <c r="F54" s="5"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1687,7 +1983,7 @@
       <c r="F55" s="5"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1695,7 +1991,7 @@
       <c r="F56" s="5"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1703,7 +1999,7 @@
       <c r="F57" s="5"/>
       <c r="I57"/>
     </row>
-    <row r="58" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1711,7 +2007,7 @@
       <c r="F58" s="5"/>
       <c r="I58"/>
     </row>
-    <row r="59" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1719,7 +2015,7 @@
       <c r="F59" s="5"/>
       <c r="I59"/>
     </row>
-    <row r="60" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1727,7 +2023,7 @@
       <c r="F60" s="5"/>
       <c r="I60"/>
     </row>
-    <row r="61" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1735,7 +2031,7 @@
       <c r="F61" s="5"/>
       <c r="I61"/>
     </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1743,7 +2039,7 @@
       <c r="F62" s="5"/>
       <c r="I62"/>
     </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1751,7 +2047,7 @@
       <c r="F63" s="5"/>
       <c r="I63"/>
     </row>
-    <row r="64" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1784,6 +2080,11 @@
       <c r="I67"/>
     </row>
     <row r="68" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="5"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="5"/>
       <c r="I68"/>
     </row>
     <row r="69" spans="2:9" ht="20.100000000000001" customHeight="1">
@@ -1813,10 +2114,23 @@
     <row r="77" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="I77"/>
     </row>
-    <row r="78" spans="2:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="78" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="I78"/>
+    </row>
     <row r="79" spans="2:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="80" spans="2:9" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="26">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="A27:A50"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B31"/>
@@ -1833,8 +2147,6 @@
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F21:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
